--- a/09_testing_and_dropout/ROS_screen_plots/Summary_csp22_validation_data.xlsx
+++ b/09_testing_and_dropout/ROS_screen_plots/Summary_csp22_validation_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Manuscripts/2025/MAMP_Prediction/Figures/Figure4/Figure4cd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{B3A5804B-7D83-9147-901A-821DFE49675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DEB98D6-CEA5-AA45-B35F-6E56AAD8B0E4}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{B3A5804B-7D83-9147-901A-821DFE49675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1619EA50-4EAA-434A-840E-1113D5DAF013}"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="500" windowWidth="16800" windowHeight="19540" xr2:uid="{103122F0-D8CE-CA4A-A51F-FA7FE097C296}"/>
+    <workbookView xWindow="14940" yWindow="500" windowWidth="18440" windowHeight="19540" xr2:uid="{103122F0-D8CE-CA4A-A51F-FA7FE097C296}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_Sheet_all_plants" sheetId="7" r:id="rId1"/>
@@ -300,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +310,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCADCE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,13 +383,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,6 +416,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCADCE6"/>
+      <color rgb="FFE7E7E7"/>
+      <color rgb="FFFFDDDD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -690,9 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF86940-4D6B-224D-8873-4E398794C910}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="166" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C68" sqref="C68"/>
+      <selection pane="topRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,10 +781,10 @@
       <c r="B3" s="1">
         <v>84437.745984020206</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>83162.997520000004</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>133370.60399999999</v>
       </c>
     </row>
@@ -752,10 +795,10 @@
       <c r="B4" s="1">
         <v>112864.13730646038</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="13">
         <v>68785.035470000003</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>186557.3463</v>
       </c>
     </row>
@@ -766,10 +809,10 @@
       <c r="B5" s="1">
         <v>79318.62305813258</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>53750.279699999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>75452.766721175765</v>
       </c>
     </row>
@@ -780,10 +823,10 @@
       <c r="B6" s="1">
         <v>115044.05275369545</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="13">
         <v>58317.851580000002</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>124417.39161857057</v>
       </c>
     </row>
@@ -794,10 +837,10 @@
       <c r="B7" s="1">
         <v>85308.609182952481</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
         <v>36240.785239999997</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>281181.35570000001</v>
       </c>
     </row>
@@ -808,10 +851,10 @@
       <c r="B8" s="1">
         <v>85585.9345079138</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="14">
         <v>40732.125480000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>70605.208380564989</v>
       </c>
     </row>
@@ -822,10 +865,10 @@
       <c r="B9" s="1">
         <v>92856.527952286269</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="13">
         <v>54077.298430000003</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>222485.9259</v>
       </c>
     </row>
@@ -836,8 +879,8 @@
       <c r="B10" s="1">
         <v>108974.77234012564</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8">
+      <c r="C10" s="8"/>
+      <c r="D10" s="10">
         <v>108907.93360797578</v>
       </c>
     </row>
@@ -848,10 +891,10 @@
       <c r="B11" s="1">
         <v>94834.490748354583</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="12">
         <v>92360.016409999997</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <v>100535.85853591145</v>
       </c>
     </row>
@@ -862,10 +905,10 @@
       <c r="B12" s="1">
         <v>116845.50773407164</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="12">
         <v>93111.509000000005</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>75869.203270293758</v>
       </c>
     </row>
@@ -876,10 +919,10 @@
       <c r="B13" s="1">
         <v>109768.03934069969</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="15">
         <v>130239.0711</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>440560.65870000003</v>
       </c>
     </row>
@@ -890,10 +933,10 @@
       <c r="B14" s="1">
         <v>101872.09031266349</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="12">
         <v>99235.271569999997</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>281044.58769999997</v>
       </c>
     </row>
@@ -904,10 +947,10 @@
       <c r="B15" s="1">
         <v>95148.426366131083</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="13">
         <v>68201.555940000006</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>149707.04371917536</v>
       </c>
     </row>
@@ -918,10 +961,10 @@
       <c r="B16" s="1">
         <v>103165.73300453501</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>160370.0814</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>252332.95180000001</v>
       </c>
     </row>
@@ -932,10 +975,10 @@
       <c r="B17" s="1">
         <v>34007.900456863506</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="16">
         <v>8106.5859710000004</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>-7143.3980179999999</v>
       </c>
     </row>
@@ -946,8 +989,8 @@
       <c r="B18" s="1">
         <v>110580.6608030558</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8">
+      <c r="C18" s="8"/>
+      <c r="D18" s="10">
         <v>84202.058770000003</v>
       </c>
     </row>
@@ -958,10 +1001,10 @@
       <c r="B19" s="1">
         <v>122476.92615257853</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="12">
         <v>102570.7092</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <v>232427.2721</v>
       </c>
     </row>
@@ -972,10 +1015,10 @@
       <c r="B20" s="1">
         <v>137489.61980882473</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="13">
         <v>11651.220729999999</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="10">
         <v>147943.45863500689</v>
       </c>
     </row>
@@ -986,10 +1029,10 @@
       <c r="B21" s="1">
         <v>84574.114382828324</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="13">
         <v>54202.160530000001</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <v>82695.443100000004</v>
       </c>
     </row>
@@ -1000,10 +1043,10 @@
       <c r="B22" s="1">
         <v>71501.849811289576</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="13">
         <v>48534.130539999998</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>2443.4171869686361</v>
       </c>
     </row>
@@ -1014,10 +1057,10 @@
       <c r="B23" s="1">
         <v>64930.006197653725</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="13">
         <v>39299.861539999998</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>109986.85408364325</v>
       </c>
     </row>
@@ -1028,10 +1071,10 @@
       <c r="B24" s="1">
         <v>87641.153256545454</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="13">
         <v>30471.520039999999</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <v>207919.4883</v>
       </c>
     </row>
@@ -1042,10 +1085,10 @@
       <c r="B25" s="1">
         <v>98516.470196194452</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="12">
         <v>102774.15850000001</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <v>312346.8334</v>
       </c>
     </row>
@@ -1056,10 +1099,10 @@
       <c r="B26" s="1">
         <v>68020.257014029004</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="12">
         <v>75179.314620000005</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="10">
         <v>173150.11470838077</v>
       </c>
     </row>
@@ -1070,10 +1113,10 @@
       <c r="B27" s="1">
         <v>3637.6218605063582</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="13">
         <v>26755.49757</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>-6930.742381</v>
       </c>
     </row>
@@ -1084,8 +1127,8 @@
       <c r="B28" s="1">
         <v>114661.38780792747</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8">
+      <c r="C28" s="8"/>
+      <c r="D28" s="10">
         <v>270219.8982</v>
       </c>
     </row>
@@ -1096,10 +1139,10 @@
       <c r="B29" s="1">
         <v>104501.56741007161</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="12">
         <v>154411.60579999999</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="10">
         <v>138383.83660000001</v>
       </c>
     </row>
@@ -1110,10 +1153,10 @@
       <c r="B30" s="1">
         <v>115034.03811052583</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="12">
         <v>81833.552209999994</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="10">
         <v>135068.64859999999</v>
       </c>
     </row>
@@ -1124,10 +1167,10 @@
       <c r="B31" s="1">
         <v>113155.72021193457</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12">
         <v>128232.4069</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="10">
         <v>142316.6458</v>
       </c>
     </row>
@@ -1138,10 +1181,10 @@
       <c r="B32" s="1">
         <v>102512.41568881454</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="13">
         <v>22128.52707</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="10">
         <v>120174.0974410912</v>
       </c>
     </row>
@@ -1152,10 +1195,10 @@
       <c r="B33" s="1">
         <v>89186.154110198608</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="13">
         <v>50528.429274319882</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="10">
         <v>237404.45619999999</v>
       </c>
     </row>
@@ -1166,10 +1209,10 @@
       <c r="B34" s="1">
         <v>78405.652857524488</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="13">
         <v>78085.363110000006</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="10">
         <v>102251.79054904981</v>
       </c>
     </row>
@@ -1180,10 +1223,10 @@
       <c r="B35" s="1">
         <v>41811.60232155268</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="13">
         <v>56736.7742</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="10">
         <v>312507.04180000001</v>
       </c>
     </row>
@@ -1194,10 +1237,10 @@
       <c r="B36" s="1">
         <v>95785.198285389604</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="13">
         <v>26917.367639782286</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="10">
         <v>159999.65693762503</v>
       </c>
     </row>
@@ -1208,8 +1251,8 @@
       <c r="B37" s="1">
         <v>21727.865586579454</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8">
+      <c r="C37" s="8"/>
+      <c r="D37" s="10">
         <v>149225.5736</v>
       </c>
     </row>
@@ -1220,10 +1263,10 @@
       <c r="B38" s="1">
         <v>-2606.7074689564542</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="16">
         <v>195.14492875527816</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>27192.982094032875</v>
       </c>
     </row>
@@ -1234,10 +1277,10 @@
       <c r="B39" s="1">
         <v>-4403.8852688062389</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="16">
         <v>-6842.8700390000004</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>-4619.3609157904602</v>
       </c>
     </row>
@@ -1248,10 +1291,10 @@
       <c r="B40" s="1">
         <v>-4726.620168787882</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="16">
         <v>2111.4578190000002</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>-4085.4054040000001</v>
       </c>
     </row>
@@ -1262,10 +1305,10 @@
       <c r="B41" s="1">
         <v>-6261.4951222646778</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="16">
         <v>-14641.18101</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>-31585.28947</v>
       </c>
     </row>
@@ -1276,8 +1319,8 @@
       <c r="B42" s="1">
         <v>-2578.6279148597673</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9">
         <v>-11264.03926</v>
       </c>
     </row>
@@ -1288,8 +1331,8 @@
       <c r="B43" s="1">
         <v>-2428.3181201373513</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8">
+      <c r="C43" s="8"/>
+      <c r="D43" s="9">
         <v>194.97463040469259</v>
       </c>
     </row>
@@ -1300,10 +1343,10 @@
       <c r="B44" s="1">
         <v>115911.44236883085</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="12">
         <v>116874.3746</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="11">
         <v>58595.492169999998</v>
       </c>
     </row>
@@ -1314,10 +1357,10 @@
       <c r="B45" s="1">
         <v>46489.914119558889</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="16">
         <v>4547.5008740000003</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="10">
         <v>161007.3302</v>
       </c>
     </row>
@@ -1328,10 +1371,10 @@
       <c r="B46" s="1">
         <v>43134.747137722385</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="12">
         <v>103421.7969</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="11">
         <v>18231.583620000001</v>
       </c>
     </row>
@@ -1342,10 +1385,10 @@
       <c r="B47" s="1">
         <v>-11285.751999801392</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="16">
         <v>-7310.1484650000002</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>3339.6489348236928</v>
       </c>
     </row>
@@ -1356,10 +1399,10 @@
       <c r="B48" s="1">
         <v>5450.2325317407094</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="13">
         <v>32563.91142</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>7514.2569709999998</v>
       </c>
     </row>
@@ -1370,10 +1413,10 @@
       <c r="B49" s="1">
         <v>-4470.9597782546016</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="13">
         <v>50797.098599999998</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>-2362.6267379087603</v>
       </c>
     </row>
@@ -1384,10 +1427,10 @@
       <c r="B50" s="1">
         <v>10.560894576082262</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="16">
         <v>1077.0474409999999</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>10541.54104</v>
       </c>
     </row>
@@ -1398,10 +1441,10 @@
       <c r="B51" s="1">
         <v>-8378.5004293399888</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="16">
         <v>-1724.3005639999999</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="11">
         <v>21163.966</v>
       </c>
     </row>
@@ -1412,10 +1455,10 @@
       <c r="B52" s="1">
         <v>-3165.1402096495931</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="16">
         <v>-6429.3489239999999</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <v>1777.2195615255355</v>
       </c>
     </row>
@@ -1426,10 +1469,10 @@
       <c r="B53" s="1">
         <v>-3797.5609676852296</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="16">
         <v>-966.11761799999999</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>-1557.2228322431661</v>
       </c>
     </row>
@@ -1440,10 +1483,10 @@
       <c r="B54" s="1">
         <v>-11279.494964908934</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="16">
         <v>-2223.9508719999999</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>-14054.38378</v>
       </c>
     </row>
@@ -1454,10 +1497,10 @@
       <c r="B55" s="1">
         <v>1319.4221435426164</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="16">
         <v>-5013.733894</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>3829.667782</v>
       </c>
     </row>
@@ -1468,10 +1511,10 @@
       <c r="B56" s="1">
         <v>67.132323479638387</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="16">
         <v>-725.64236679999999</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="9">
         <v>1021.4010029999999</v>
       </c>
     </row>
@@ -1482,10 +1525,10 @@
       <c r="B57" s="1">
         <v>4646.0600450556858</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="16">
         <v>3.4933734030000001</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="11">
         <v>23910.138739999999</v>
       </c>
     </row>
@@ -1496,10 +1539,10 @@
       <c r="B58" s="1">
         <v>4004.2373826977164</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="16">
         <v>-5359.42076</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>-3362.5633482870662</v>
       </c>
     </row>
@@ -1510,10 +1553,10 @@
       <c r="B59" s="1">
         <v>197.04966822327717</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="13">
         <v>15974.430259999999</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>-14169.151330000001</v>
       </c>
     </row>
@@ -1524,10 +1567,10 @@
       <c r="B60" s="1">
         <v>80809.581800175642</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="12">
         <v>114778.3772</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="10">
         <v>118819.15205460131</v>
       </c>
     </row>
@@ -1538,8 +1581,8 @@
       <c r="B61" s="1">
         <v>131372.14731043996</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8">
+      <c r="C61" s="8"/>
+      <c r="D61" s="9">
         <v>7555.6622347714347</v>
       </c>
     </row>
@@ -1550,8 +1593,8 @@
       <c r="B62" s="1">
         <v>48103.501570954941</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="8">
+      <c r="C62" s="8"/>
+      <c r="D62" s="9">
         <v>-7866.3624152592556</v>
       </c>
     </row>
@@ -1562,10 +1605,10 @@
       <c r="B63" s="1">
         <v>2296.3845248578773</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="16">
         <v>726.64846360000001</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>10547.312474474682</v>
       </c>
     </row>
@@ -1576,8 +1619,8 @@
       <c r="B64" s="1">
         <v>273.79281647295187</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8">
+      <c r="C64" s="8"/>
+      <c r="D64" s="9">
         <v>370.39622685653012</v>
       </c>
     </row>
@@ -1588,10 +1631,10 @@
       <c r="B65" s="1">
         <v>82163.670420448922</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="12">
         <v>110740.4336</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="10">
         <v>188723.3651</v>
       </c>
     </row>
@@ -1602,8 +1645,8 @@
       <c r="B66" s="1">
         <v>57100.409338196121</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="8">
+      <c r="C66" s="8"/>
+      <c r="D66" s="11">
         <v>59881.738559999998</v>
       </c>
     </row>
@@ -1614,15 +1657,16 @@
       <c r="B67" s="1">
         <v>5432.2919451550879</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="16">
         <v>-428.67127629999999</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="9">
         <v>-6258.0756069999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>